--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,114 +52,105 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>infected</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>lowest</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>cancelled</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>problem</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -184,124 +175,130 @@
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>god</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>growth</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>ready</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>helping</t>
   </si>
   <si>
     <t>protect</t>
@@ -310,16 +307,13 @@
     <t>increase</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>give</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>give</t>
+    <t>check</t>
   </si>
   <si>
     <t>shop</t>
@@ -683,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
         <v>60</v>
@@ -773,16 +767,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -794,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -823,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>0.9333333333333333</v>
@@ -873,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -902,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.821917808219178</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C6">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D6">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -920,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>0.9083333333333333</v>
@@ -952,13 +946,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -970,10 +964,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>0.8947368421052632</v>
@@ -1002,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1020,10 +1014,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>0.8846153846153846</v>
@@ -1073,16 +1067,16 @@
         <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1094,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1123,16 +1117,16 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1144,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1152,13 +1146,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7297297297297297</v>
+        <v>0.72</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1170,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.8224543080939948</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1194,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1202,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6956521739130435</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1220,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1244,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1252,13 +1246,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1270,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.8170731707317073</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1294,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1302,13 +1296,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.68</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1323,16 +1317,16 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.8103448275862069</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1344,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1352,13 +1346,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6538461538461539</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1370,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1394,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1402,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6101694915254238</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1420,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.8028169014084507</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1444,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1452,13 +1446,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6086956521739131</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1470,19 +1464,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.796875</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1494,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1502,13 +1496,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5769230769230769</v>
+        <v>0.55</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1520,19 +1514,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K18">
-        <v>0.7875</v>
+        <v>0.775</v>
       </c>
       <c r="L18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M18">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1544,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1552,13 +1546,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5686274509803921</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1570,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>0.7872340425531915</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1594,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1602,13 +1596,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5333333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1620,19 +1614,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>0.7830188679245284</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="L20">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1644,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1652,13 +1646,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5251937984496124</v>
+        <v>0.5290697674418605</v>
       </c>
       <c r="C21">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D21">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1670,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1694,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1723,16 +1717,16 @@
         <v>90</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1744,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1752,13 +1746,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4899328859060403</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C23">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1770,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K23">
         <v>0.75</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1794,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1802,13 +1796,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4615384615384616</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1820,19 +1814,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.7291666666666666</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1844,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1852,13 +1846,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4516129032258064</v>
+        <v>0.44</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1870,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.7272727272727273</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L25">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1894,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1902,37 +1896,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.45</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>18</v>
       </c>
-      <c r="D26">
-        <v>18</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>22</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.7209302325581395</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1944,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1952,13 +1946,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.40625</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1970,19 +1964,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K27">
         <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1994,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2002,13 +1996,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2020,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K28">
         <v>0.7083333333333334</v>
@@ -2052,49 +2046,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3846153846153846</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>36</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29">
+        <v>0.7</v>
+      </c>
+      <c r="L29">
+        <v>35</v>
+      </c>
+      <c r="M29">
+        <v>35</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>15</v>
-      </c>
-      <c r="D29">
-        <v>15</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>24</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K29">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L29">
-        <v>15</v>
-      </c>
-      <c r="M29">
-        <v>15</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2102,13 +2096,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3818181818181818</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2120,19 +2114,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.6785714285714286</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2144,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2152,13 +2146,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3783783783783784</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2170,19 +2164,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K31">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2194,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2202,13 +2196,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3733333333333334</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2220,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.6571428571428571</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2244,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2252,13 +2246,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3611111111111111</v>
+        <v>0.2125</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2270,19 +2264,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K33">
-        <v>0.6264705882352941</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L33">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M33">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2294,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2302,13 +2296,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3571428571428572</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2320,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K34">
         <v>0.625</v>
@@ -2352,13 +2346,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.253968253968254</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C35">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2370,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>188</v>
+        <v>323</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K35">
-        <v>0.6086956521739131</v>
+        <v>0.625</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2402,13 +2396,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2333333333333333</v>
+        <v>0.06</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2420,19 +2414,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>69</v>
+        <v>282</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2444,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2452,13 +2446,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2077922077922078</v>
+        <v>0.01205857019810508</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2470,19 +2464,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>61</v>
+        <v>1147</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K37">
-        <v>0.5932203389830508</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L37">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M37">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2494,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2502,37 +2496,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2</v>
+        <v>0.01029962546816479</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>64</v>
+        <v>2114</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K38">
-        <v>0.5815899581589958</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L38">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="M38">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2544,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2552,213 +2546,141 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1474530831099196</v>
+        <v>0.009987113402061855</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>318</v>
+        <v>3073</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L39">
+        <v>13</v>
+      </c>
+      <c r="M39">
+        <v>13</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K40">
+        <v>0.5652173913043478</v>
+      </c>
+      <c r="L40">
+        <v>13</v>
+      </c>
+      <c r="M40">
+        <v>13</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K41">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="L41">
+        <v>36</v>
+      </c>
+      <c r="M41">
+        <v>36</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K39">
-        <v>0.58</v>
-      </c>
-      <c r="L39">
-        <v>29</v>
-      </c>
-      <c r="M39">
-        <v>29</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.05333333333333334</v>
-      </c>
-      <c r="C40">
-        <v>16</v>
-      </c>
-      <c r="D40">
-        <v>16</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>284</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K40">
-        <v>0.5757575757575758</v>
-      </c>
-      <c r="L40">
-        <v>19</v>
-      </c>
-      <c r="M40">
-        <v>19</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.0103126007089913</v>
-      </c>
-      <c r="C41">
+      <c r="K42">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="L42">
+        <v>38</v>
+      </c>
+      <c r="M42">
+        <v>38</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>32</v>
-      </c>
-      <c r="D41">
-        <v>36</v>
-      </c>
-      <c r="E41">
-        <v>0.11</v>
-      </c>
-      <c r="F41">
-        <v>0.89</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>3071</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K41">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L41">
-        <v>16</v>
-      </c>
-      <c r="M41">
-        <v>16</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42">
-        <v>0.009354536950420954</v>
-      </c>
-      <c r="C42">
-        <v>20</v>
-      </c>
-      <c r="D42">
-        <v>25</v>
-      </c>
-      <c r="E42">
-        <v>0.2</v>
-      </c>
-      <c r="F42">
-        <v>0.8</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>2118</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K42">
-        <v>0.5652173913043478</v>
-      </c>
-      <c r="L42">
-        <v>13</v>
-      </c>
-      <c r="M42">
-        <v>13</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K43">
-        <v>0.5638297872340425</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L43">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2770,12 +2692,12 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K44">
         <v>0.5357142857142857</v>
@@ -2801,16 +2723,16 @@
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K45">
-        <v>0.5285714285714286</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L45">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2822,21 +2744,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K46">
-        <v>0.4943820224719101</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L46">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M46">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2848,21 +2770,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K47">
-        <v>0.4761904761904762</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2874,21 +2796,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K48">
-        <v>0.4</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2900,21 +2822,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K49">
-        <v>0.392156862745098</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2926,47 +2848,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K50">
-        <v>0.3424657534246575</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L50">
+        <v>20</v>
+      </c>
+      <c r="M50">
+        <v>20</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>25</v>
-      </c>
-      <c r="M50">
-        <v>25</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>48</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K51">
-        <v>0.2948717948717949</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2978,21 +2900,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K52">
-        <v>0.288135593220339</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3004,21 +2926,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K53">
-        <v>0.2456140350877193</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3030,21 +2952,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K54">
-        <v>0.234375</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3056,21 +2978,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K55">
-        <v>0.2295081967213115</v>
+        <v>0.25</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3082,15 +3004,15 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K56">
-        <v>0.08648648648648649</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="L56">
         <v>16</v>
@@ -3108,33 +3030,59 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>169</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K57">
-        <v>0.006894390473205891</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N57">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.3100000000000001</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>3169</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K58">
+        <v>0.00407395800689439</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>23</v>
+      </c>
+      <c r="N58">
+        <v>0.57</v>
+      </c>
+      <c r="O58">
+        <v>0.43</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3178</v>
       </c>
     </row>
   </sheetData>
